--- a/data/trans_dic/IP16A112_2023R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>18,92%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,8; 57,54</t>
+          <t>0,0; 67,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,11; 55,11</t>
+          <t>0,0; 54,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,32; 53,3</t>
+          <t>4,8; 45,71</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>44,9%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,04; 63,54</t>
+          <t>34,8; 57,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,28; 60,51</t>
+          <t>29,11; 55,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,18; 57,9</t>
+          <t>35,32; 53,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>50,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>48,4%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,79</t>
+          <t>31,61; 57,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,88</t>
+          <t>30,0; 65,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 45,71</t>
+          <t>36,1; 58,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>47,36%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,61; 57,84</t>
+          <t>34,04; 63,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,0; 65,23</t>
+          <t>31,28; 60,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,1; 58,53</t>
+          <t>37,18; 57,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A112_2023R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 47,61</t>
+          <t>16,43; 47,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,56; 65,7</t>
+          <t>29,52; 63,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,47; 50,42</t>
+          <t>26,3; 51,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,8; 57,54</t>
+          <t>35,58; 57,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,11; 55,11</t>
+          <t>30,41; 55,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,32; 53,3</t>
+          <t>36,42; 53,28</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,61; 57,84</t>
+          <t>31,77; 58,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,0; 65,23</t>
+          <t>31,56; 65,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,1; 58,53</t>
+          <t>37,61; 58,77</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,04; 63,54</t>
+          <t>33,69; 62,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,28; 60,51</t>
+          <t>31,52; 60,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,18; 57,9</t>
+          <t>37,91; 58,46</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,35; 50,71</t>
+          <t>36,93; 50,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,41; 53,18</t>
+          <t>37,26; 53,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,63; 49,09</t>
+          <t>39,46; 49,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A112_2023R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,79</t>
+          <t>0,0; 67,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,88</t>
+          <t>0,0; 58,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 45,71</t>
+          <t>4,82; 44,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 47,42</t>
+          <t>14,76; 46,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,52; 63,98</t>
+          <t>30,73; 65,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,3; 51,14</t>
+          <t>26,99; 51,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,58; 57,93</t>
+          <t>34,95; 57,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 55,65</t>
+          <t>29,02; 54,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,42; 53,28</t>
+          <t>36,27; 54,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,77; 58,6</t>
+          <t>32,21; 58,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,56; 65,14</t>
+          <t>27,33; 64,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,61; 58,77</t>
+          <t>34,87; 57,13</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,69; 62,79</t>
+          <t>34,56; 62,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,52; 60,19</t>
+          <t>32,41; 59,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,91; 58,46</t>
+          <t>36,83; 57,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,93; 50,82</t>
+          <t>37,01; 50,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,26; 53,24</t>
+          <t>37,47; 53,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,46; 49,72</t>
+          <t>39,76; 49,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A112_2023R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>33,06%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,71</t>
+          <t>24,98; 54,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,62</t>
+          <t>14,19; 44,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 44,31</t>
+          <t>23,64; 44,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>43,79%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 46,75</t>
+          <t>23,3; 53,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,73; 65,89</t>
+          <t>34,38; 57,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,99; 51,33</t>
+          <t>33,52; 52,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>41,46%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,95; 57,43</t>
+          <t>14,5; 62,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 54,63</t>
+          <t>32,21; 58,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,27; 54,31</t>
+          <t>22,59; 55,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>47,05%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,21; 58,29</t>
+          <t>31,5; 61,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,33; 64,58</t>
+          <t>33,53; 62,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,87; 57,13</t>
+          <t>36,68; 57,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>41,88%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,56; 62,99</t>
+          <t>23,77; 49,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,41; 59,7</t>
+          <t>37,26; 50,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,83; 57,92</t>
+          <t>31,87; 46,96</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>43,95%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>45,8%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>44,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>37,01; 50,02</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>37,47; 53,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>39,76; 49,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
